--- a/doc/_static/example-files/PMHC-4-0-treatment.xlsx
+++ b/doc/_static/example-files/PMHC-4-0-treatment.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="309">
   <si>
     <t>key</t>
   </si>
@@ -459,33 +459,18 @@
     <t>K10M400</t>
   </si>
   <si>
-    <t>total=25</t>
-  </si>
-  <si>
     <t>K10M401</t>
   </si>
   <si>
-    <t>total=30</t>
-  </si>
-  <si>
     <t>K10M402</t>
   </si>
   <si>
-    <t>total=39</t>
-  </si>
-  <si>
     <t>K10M403</t>
   </si>
   <si>
-    <t>total=31</t>
-  </si>
-  <si>
     <t>K10M404</t>
   </si>
   <si>
-    <t>total=29</t>
-  </si>
-  <si>
     <t>k5_item1</t>
   </si>
   <si>
@@ -510,15 +495,9 @@
     <t>K5M400</t>
   </si>
   <si>
-    <t>total=99</t>
-  </si>
-  <si>
     <t>K5M401</t>
   </si>
   <si>
-    <t>total=14</t>
-  </si>
-  <si>
     <t>K5M402</t>
   </si>
   <si>
@@ -531,15 +510,9 @@
     <t>K5M405</t>
   </si>
   <si>
-    <t>total=12</t>
-  </si>
-  <si>
     <t>K5M406</t>
   </si>
   <si>
-    <t>total=16</t>
-  </si>
-  <si>
     <t>K5M407</t>
   </si>
   <si>
@@ -708,33 +681,21 @@
     <t>PY101</t>
   </si>
   <si>
-    <t>total=18</t>
-  </si>
-  <si>
     <t>SDQM401</t>
   </si>
   <si>
     <t>PC201</t>
   </si>
   <si>
-    <t>total=13</t>
-  </si>
-  <si>
     <t>SDQM402</t>
   </si>
   <si>
-    <t>total=22</t>
-  </si>
-  <si>
     <t>SDQM403</t>
   </si>
   <si>
     <t>PC101</t>
   </si>
   <si>
-    <t>total=17</t>
-  </si>
-  <si>
     <t>SDQM404</t>
   </si>
   <si>
@@ -744,27 +705,15 @@
     <t>SDQM405</t>
   </si>
   <si>
-    <t>total=20</t>
-  </si>
-  <si>
     <t>SDQM406</t>
   </si>
   <si>
-    <t>total=19</t>
-  </si>
-  <si>
     <t>SDQM407</t>
   </si>
   <si>
-    <t>total=15</t>
-  </si>
-  <si>
     <t>SDQM408</t>
   </si>
   <si>
-    <t>total=26</t>
-  </si>
-  <si>
     <t>SDQM409</t>
   </si>
   <si>
@@ -780,9 +729,6 @@
     <t>SDQM413</t>
   </si>
   <si>
-    <t>total=21</t>
-  </si>
-  <si>
     <t>SDQM414</t>
   </si>
   <si>
@@ -793,9 +739,6 @@
   </si>
   <si>
     <t>SDQM416</t>
-  </si>
-  <si>
-    <t>total=27</t>
   </si>
   <si>
     <t>SDQM417</t>
@@ -1388,55 +1331,55 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="J1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="K1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="L1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="M1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="N1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="O1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="P1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="Q1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1444,7 +1387,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -1486,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="Q2">
         <v>400</v>
@@ -1497,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -1539,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -1550,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -1592,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Q4">
         <v>200</v>
@@ -1603,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -1645,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="Q5">
         <v>100</v>
@@ -1656,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -1698,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="Q6">
         <v>400</v>
@@ -1709,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -1751,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q7">
         <v>100</v>
@@ -1762,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -1804,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -1815,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -1857,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>300</v>
@@ -1868,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -1910,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>200</v>
@@ -1921,7 +1864,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -1963,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>200</v>
@@ -1987,16 +1930,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2004,13 +1947,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2021,13 +1964,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2038,13 +1981,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2055,13 +1998,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2072,13 +2015,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2089,13 +2032,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2106,13 +2049,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2123,13 +2066,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2140,13 +2083,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2157,13 +2100,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2174,13 +2117,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2191,13 +2134,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2221,28 +2164,28 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H1" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2250,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -2276,7 +2219,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C3">
         <v>99</v>
@@ -2302,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2328,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2354,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2380,7 +2323,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -2406,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2432,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2458,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -2484,7 +2427,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -4460,16 +4403,13 @@
       <c r="R2">
         <v>25</v>
       </c>
-      <c r="S2" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
@@ -4519,16 +4459,13 @@
       <c r="R3">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>117</v>
@@ -4578,16 +4515,13 @@
       <c r="R4">
         <v>39</v>
       </c>
-      <c r="S4" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
@@ -4637,16 +4571,13 @@
       <c r="R5">
         <v>31</v>
       </c>
-      <c r="S5" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>123</v>
@@ -4695,9 +4626,6 @@
       </c>
       <c r="R6">
         <v>29</v>
-      </c>
-      <c r="S6" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4724,25 +4652,25 @@
         <v>101</v>
       </c>
       <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>154</v>
-      </c>
-      <c r="F1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4750,7 +4678,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>108</v>
@@ -4773,16 +4701,13 @@
       <c r="I2">
         <v>99</v>
       </c>
-      <c r="J2" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
@@ -4805,16 +4730,13 @@
       <c r="I3">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
@@ -4837,16 +4759,13 @@
       <c r="I4">
         <v>99</v>
       </c>
-      <c r="J4" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -4869,16 +4788,13 @@
       <c r="I5">
         <v>99</v>
       </c>
-      <c r="J5" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -4901,16 +4817,13 @@
       <c r="I6">
         <v>99</v>
       </c>
-      <c r="J6" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>119</v>
@@ -4933,16 +4846,13 @@
       <c r="I7">
         <v>12</v>
       </c>
-      <c r="J7" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>120</v>
@@ -4965,16 +4875,13 @@
       <c r="I8">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
@@ -4997,16 +4904,13 @@
       <c r="I9">
         <v>99</v>
       </c>
-      <c r="J9" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -5029,16 +4933,13 @@
       <c r="I10">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -5060,9 +4961,6 @@
       </c>
       <c r="I11">
         <v>99</v>
-      </c>
-      <c r="J11" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5089,157 +4987,157 @@
         <v>101</v>
       </c>
       <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>177</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>184</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>185</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>187</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>188</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>189</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>190</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>191</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>192</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>193</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>194</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>195</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>196</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>197</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>198</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>201</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>202</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>203</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>204</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>205</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>206</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>207</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AU1" t="s">
         <v>208</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AV1" t="s">
         <v>209</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AW1" t="s">
         <v>210</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AX1" t="s">
         <v>211</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AY1" t="s">
         <v>212</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AZ1" t="s">
         <v>213</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BA1" t="s">
         <v>214</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BB1" t="s">
         <v>215</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:54">
@@ -5247,13 +5145,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -5402,22 +5300,19 @@
       <c r="BA2">
         <v>8</v>
       </c>
-      <c r="BB2" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
         <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5566,22 +5461,19 @@
       <c r="BA3">
         <v>7</v>
       </c>
-      <c r="BB3" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -5730,22 +5622,19 @@
       <c r="BA4">
         <v>4</v>
       </c>
-      <c r="BB4" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
         <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -5894,22 +5783,19 @@
       <c r="BA5">
         <v>3</v>
       </c>
-      <c r="BB5" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -6058,22 +5944,19 @@
       <c r="BA6">
         <v>1</v>
       </c>
-      <c r="BB6" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
         <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6222,22 +6105,19 @@
       <c r="BA7">
         <v>5</v>
       </c>
-      <c r="BB7" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6386,22 +6266,19 @@
       <c r="BA8">
         <v>2</v>
       </c>
-      <c r="BB8" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -6550,22 +6427,19 @@
       <c r="BA9">
         <v>0</v>
       </c>
-      <c r="BB9" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -6714,22 +6588,19 @@
       <c r="BA10">
         <v>0</v>
       </c>
-      <c r="BB10" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6878,22 +6749,19 @@
       <c r="BA11">
         <v>5</v>
       </c>
-      <c r="BB11" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
         <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7042,22 +6910,19 @@
       <c r="BA12">
         <v>0</v>
       </c>
-      <c r="BB12" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
         <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -7206,22 +7071,19 @@
       <c r="BA13">
         <v>0</v>
       </c>
-      <c r="BB13" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
         <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -7370,22 +7232,19 @@
       <c r="BA14">
         <v>4</v>
       </c>
-      <c r="BB14" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
         <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -7534,22 +7393,19 @@
       <c r="BA15">
         <v>4</v>
       </c>
-      <c r="BB15" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
         <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -7698,22 +7554,19 @@
       <c r="BA16">
         <v>3</v>
       </c>
-      <c r="BB16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54">
+    </row>
+    <row r="17" spans="1:53">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -7862,22 +7715,19 @@
       <c r="BA17">
         <v>4</v>
       </c>
-      <c r="BB17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54">
+    </row>
+    <row r="18" spans="1:53">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -8026,22 +7876,19 @@
       <c r="BA18">
         <v>4</v>
       </c>
-      <c r="BB18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54">
+    </row>
+    <row r="19" spans="1:53">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -8190,22 +8037,19 @@
       <c r="BA19">
         <v>0</v>
       </c>
-      <c r="BB19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54">
+    </row>
+    <row r="20" spans="1:53">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -8354,22 +8198,19 @@
       <c r="BA20">
         <v>2</v>
       </c>
-      <c r="BB20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:54">
+    </row>
+    <row r="21" spans="1:53">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -8518,22 +8359,19 @@
       <c r="BA21">
         <v>0</v>
       </c>
-      <c r="BB21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54">
+    </row>
+    <row r="22" spans="1:53">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -8681,9 +8519,6 @@
       </c>
       <c r="BA22">
         <v>2</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/doc/_static/example-files/PMHC-4-0-treatment.xlsx
+++ b/doc/_static/example-files/PMHC-4-0-treatment.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="311">
   <si>
     <t>key</t>
   </si>
@@ -81,6 +81,15 @@
     <t>Example Treatment Organisation</t>
   </si>
   <si>
+    <t>PHN999:Intake01</t>
+  </si>
+  <si>
+    <t>Intake01</t>
+  </si>
+  <si>
+    <t>Example Intake Organisation</t>
+  </si>
+  <si>
     <t>client_key</t>
   </si>
   <si>
@@ -295,9 +304,6 @@
   </si>
   <si>
     <t>intake_key</t>
-  </si>
-  <si>
-    <t>PHN999:Intake01</t>
   </si>
   <si>
     <t>I400</t>
@@ -1331,55 +1337,55 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1387,10 +1393,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>17052021</v>
@@ -1429,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q2">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1440,10 +1446,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>17122021</v>
@@ -1482,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1493,10 +1499,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>28032021</v>
@@ -1535,10 +1541,10 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q4">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1546,10 +1552,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>17052021</v>
@@ -1588,10 +1594,10 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1599,10 +1605,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>3082021</v>
@@ -1641,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q6">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1652,10 +1658,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>17112021</v>
@@ -1694,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1705,10 +1711,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>12082021</v>
@@ -1747,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1758,10 +1764,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>11012022</v>
@@ -1800,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q9">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1811,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>28062021</v>
@@ -1853,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1864,10 +1870,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>17082021</v>
@@ -1906,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11">
-        <v>200</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1930,16 +1936,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1947,13 +1953,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1964,13 +1970,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1981,13 +1987,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1998,13 +2004,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2015,13 +2021,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2032,13 +2038,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2049,13 +2055,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2066,13 +2072,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2083,13 +2089,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2100,13 +2106,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2117,13 +2123,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2134,13 +2140,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2164,28 +2170,28 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2193,7 +2199,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -2219,7 +2225,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3">
         <v>99</v>
@@ -2245,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2271,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2297,7 +2303,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2323,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -2349,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2375,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2401,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -2427,7 +2433,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2455,7 +2461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2516,6 +2522,32 @@
         <v>1072020</v>
       </c>
       <c r="I2">
+        <v>9099999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>42543098901</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1072020</v>
+      </c>
+      <c r="I3">
         <v>9099999</v>
       </c>
     </row>
@@ -2537,34 +2569,34 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2572,10 +2604,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>1011940</v>
@@ -2604,10 +2636,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>14011940</v>
@@ -2636,10 +2668,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>27011940</v>
@@ -2668,10 +2700,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>9021940</v>
@@ -2700,10 +2732,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>22021940</v>
@@ -2745,91 +2777,91 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -2837,10 +2869,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>17052021</v>
@@ -2918,7 +2950,7 @@
         <v>7</v>
       </c>
       <c r="AC2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -2926,10 +2958,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>17122021</v>
@@ -3007,10 +3039,10 @@
         <v>4</v>
       </c>
       <c r="AC3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -3018,10 +3050,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>3082021</v>
@@ -3099,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="AC4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -3107,10 +3139,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>17112021</v>
@@ -3188,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="AC5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -3196,10 +3228,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>12082021</v>
@@ -3277,7 +3309,7 @@
         <v>8</v>
       </c>
       <c r="AC6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -3285,10 +3317,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3303,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -3363,7 +3395,7 @@
         <v>8</v>
       </c>
       <c r="AC7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -3371,10 +3403,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>17082021</v>
@@ -3452,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="AC8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -3460,10 +3492,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>15052021</v>
@@ -3541,7 +3573,7 @@
         <v>9</v>
       </c>
       <c r="AC9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -3549,10 +3581,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>12102021</v>
@@ -3630,7 +3662,7 @@
         <v>5</v>
       </c>
       <c r="AC10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -3638,10 +3670,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3716,7 +3748,7 @@
         <v>8</v>
       </c>
       <c r="AC11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3734,16 +3766,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3751,13 +3783,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3765,13 +3797,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3779,13 +3811,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3793,13 +3825,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3807,13 +3839,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3821,13 +3853,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3835,13 +3867,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3849,13 +3881,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3863,13 +3895,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3877,13 +3909,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3904,19 +3936,19 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3924,10 +3956,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>27012021</v>
@@ -3941,10 +3973,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>6022021</v>
@@ -3958,10 +3990,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>26092020</v>
@@ -3975,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>19012021</v>
@@ -3992,10 +4024,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>17032021</v>
@@ -4009,10 +4041,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>20102020</v>
@@ -4026,10 +4058,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>4062021</v>
@@ -4043,10 +4075,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>16082020</v>
@@ -4060,10 +4092,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>1072021</v>
@@ -4077,10 +4109,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>26092020</v>
@@ -4094,10 +4126,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>6082020</v>
@@ -4111,10 +4143,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>21032021</v>
@@ -4128,10 +4160,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>18012021</v>
@@ -4145,10 +4177,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>21012021</v>
@@ -4162,10 +4194,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>17082020</v>
@@ -4179,10 +4211,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>15122020</v>
@@ -4196,10 +4228,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>22102020</v>
@@ -4213,10 +4245,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>25102020</v>
@@ -4230,10 +4262,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>26042021</v>
@@ -4247,10 +4279,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>19082020</v>
@@ -4264,10 +4296,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>27072021</v>
@@ -4294,58 +4326,58 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -4353,10 +4385,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4409,10 +4441,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -4465,10 +4497,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4521,10 +4553,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -4577,10 +4609,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -4646,31 +4678,31 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4678,10 +4710,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -4707,10 +4739,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4736,10 +4768,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -4765,10 +4797,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4794,10 +4826,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -4823,10 +4855,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -4852,10 +4884,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4881,10 +4913,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4910,10 +4942,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -4939,10 +4971,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -4981,163 +5013,163 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="S1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="U1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="V1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Z1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AA1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AD1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AE1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AH1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AI1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AJ1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AP1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AQ1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AR1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AS1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AT1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AU1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AV1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AW1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AX1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AY1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AZ1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BA1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BB1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:54">
@@ -5145,13 +5177,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -5306,13 +5338,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5467,13 +5499,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -5628,13 +5660,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -5789,13 +5821,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -5950,13 +5982,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6111,13 +6143,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6272,13 +6304,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -6433,13 +6465,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -6594,13 +6626,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6755,13 +6787,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6916,13 +6948,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -7077,13 +7109,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -7238,13 +7270,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -7399,13 +7431,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -7560,13 +7592,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -7721,13 +7753,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -7882,13 +7914,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -8043,13 +8075,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -8204,13 +8236,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -8365,13 +8397,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E22">
         <v>1</v>
